--- a/results_2025.xlsx
+++ b/results_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CORE\Massey_Papers_2025\159302_2025\159302\159302\Stream_website\Assignments 2025\A1\Start_up_codes_A1_2025\A1_crossplatform_v4\A1_crossplatform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamhu\Desktop\8_Puzzle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A9F27B86-465B-438F-BFDA-911281DEDE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5770E55C-281A-4D5E-92A1-AA9DA47EFAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{274921D8-8117-41C6-8FD7-981F87D2E438}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{274921D8-8117-41C6-8FD7-981F87D2E438}"/>
   </bookViews>
   <sheets>
     <sheet name="results_2025" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>ALGORITHM</t>
   </si>
@@ -61,13 +61,46 @@
     <t xml:space="preserve">  uniform_cost_search          </t>
   </si>
   <si>
-    <t>DDRRLLLUUURDLUDURDLUU</t>
-  </si>
-  <si>
     <t xml:space="preserve"> astar_misplacedtiles          </t>
   </si>
   <si>
     <t xml:space="preserve">      astar_manhattan          </t>
+  </si>
+  <si>
+    <t>ddlurd</t>
+  </si>
+  <si>
+    <t>ddruullddrruldr</t>
+  </si>
+  <si>
+    <t>rddlluurrddlluurrdd</t>
+  </si>
+  <si>
+    <t>DDLURD</t>
+  </si>
+  <si>
+    <t>DDRUULLDDRRLUDR</t>
+  </si>
+  <si>
+    <t>RDDLLUURRDDLLUURRDD</t>
+  </si>
+  <si>
+    <t>RDLURULLDRULDDRUULDRDR</t>
+  </si>
+  <si>
+    <t>UULDRDLULURRDDLUURD L LURRDLDR</t>
+  </si>
+  <si>
+    <t>rdlulurdldruuldrrulddr</t>
+  </si>
+  <si>
+    <t>lurulldrdruulldrrulddruuldrd</t>
+  </si>
+  <si>
+    <t>drulldrdrulldrr</t>
+  </si>
+  <si>
+    <t>rdluruldlurdldruuldrdr</t>
   </si>
 </sst>
 </file>
@@ -566,53 +599,59 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,7 +667,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -944,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1E8BE5-CA02-4298-AB70-0D10D4932D3D}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="A1:L16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -962,11 +1001,11 @@
     <col min="8" max="8" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1015,13 +1054,13 @@
         <v>123456780</v>
       </c>
       <c r="D2" s="1">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -1030,17 +1069,17 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1051,32 +1090,32 @@
         <v>123456780</v>
       </c>
       <c r="D3" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
-        <v>54</v>
+        <v>6459</v>
       </c>
       <c r="F3" s="1">
-        <v>20</v>
+        <v>3780</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>6458</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1087,32 +1126,32 @@
         <v>123456780</v>
       </c>
       <c r="D4" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1">
-        <v>54</v>
+        <v>35157</v>
       </c>
       <c r="F4" s="1">
+        <v>15007</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>35156</v>
+      </c>
+      <c r="J4" s="1">
+        <v>9542</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1123,32 +1162,32 @@
         <v>123456780</v>
       </c>
       <c r="D5" s="1">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1">
+        <v>85403</v>
+      </c>
+      <c r="F5" s="1">
+        <v>25040</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>85402</v>
+      </c>
+      <c r="J5" s="1">
+        <v>36872</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1">
-        <v>54</v>
-      </c>
-      <c r="F5" s="1">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1159,34 +1198,34 @@
         <v>123456780</v>
       </c>
       <c r="D6" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1">
-        <v>54</v>
+        <v>177694</v>
       </c>
       <c r="F6" s="1">
-        <v>20</v>
+        <v>24171</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>177693</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>116404</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>120483765</v>
@@ -1195,13 +1234,13 @@
         <v>123456780</v>
       </c>
       <c r="D7" s="1">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -1210,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>208135467</v>
@@ -1231,34 +1270,34 @@
         <v>123456780</v>
       </c>
       <c r="D8" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="F8" s="1">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>704851632</v>
@@ -1267,34 +1306,34 @@
         <v>123456780</v>
       </c>
       <c r="D9" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1">
-        <v>54</v>
+        <v>1275</v>
       </c>
       <c r="F9" s="1">
-        <v>20</v>
+        <v>819</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1274</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>536407182</v>
@@ -1303,34 +1342,34 @@
         <v>123456780</v>
       </c>
       <c r="D10" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1">
-        <v>54</v>
+        <v>6591</v>
       </c>
       <c r="F10" s="1">
-        <v>20</v>
+        <v>3715</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>6590</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>638541720</v>
@@ -1339,34 +1378,43 @@
         <v>123456780</v>
       </c>
       <c r="D11" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1">
-        <v>54</v>
+        <v>52661</v>
       </c>
       <c r="F11" s="1">
-        <v>20</v>
+        <v>19717</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>52660</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>17238</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>120483765</v>
@@ -1375,13 +1423,13 @@
         <v>123456780</v>
       </c>
       <c r="D12" s="1">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1390,19 +1438,19 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>13</v>
+      <c r="K12" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>208135467</v>
@@ -1411,14 +1459,14 @@
         <v>123456780</v>
       </c>
       <c r="D13" s="1">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1">
         <v>21</v>
       </c>
-      <c r="E13" s="1">
-        <v>54</v>
-      </c>
-      <c r="F13" s="1">
-        <v>20</v>
-      </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
@@ -1426,19 +1474,19 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>704851632</v>
@@ -1447,13 +1495,13 @@
         <v>123456780</v>
       </c>
       <c r="D14" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F14" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1462,19 +1510,19 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>536407182</v>
@@ -1483,34 +1531,34 @@
         <v>123456780</v>
       </c>
       <c r="D15" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1">
-        <v>54</v>
+        <v>619</v>
       </c>
       <c r="F15" s="1">
-        <v>20</v>
+        <v>371</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>638541720</v>
@@ -1519,30 +1567,250 @@
         <v>123456780</v>
       </c>
       <c r="D16" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1">
-        <v>54</v>
+        <v>3914</v>
       </c>
       <c r="F16" s="1">
-        <v>20</v>
+        <v>2190</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>3913</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="L16" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
